--- a/03 Srila Prabhupada Lila/03 Product Backlog.xlsx
+++ b/03 Srila Prabhupada Lila/03 Product Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
   <si>
     <t>Should Do</t>
   </si>
@@ -35,24 +35,12 @@
     <t>Pastime</t>
   </si>
   <si>
-    <t xml:space="preserve">Advanced search for the pastime </t>
-  </si>
-  <si>
     <t>Visitor</t>
   </si>
   <si>
-    <t>US-SP-019</t>
-  </si>
-  <si>
     <t>Must Do</t>
   </si>
   <si>
-    <t>Search the pastime with a specific keyword(s)</t>
-  </si>
-  <si>
-    <t>US-SP-018</t>
-  </si>
-  <si>
     <t>Could Do</t>
   </si>
   <si>
@@ -62,111 +50,60 @@
     <t>Approver</t>
   </si>
   <si>
-    <t>US-SP-017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Make corrections to the title and approve</t>
   </si>
   <si>
-    <t>US-SP-016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Approve the Suggested Title</t>
   </si>
   <si>
-    <t>US-SP-015</t>
-  </si>
-  <si>
     <t xml:space="preserve"> View all the suggested titles</t>
   </si>
   <si>
-    <t>US-SP-014</t>
-  </si>
-  <si>
     <t xml:space="preserve"> View the list of pastimes for which I have submitted the review</t>
   </si>
   <si>
     <t>Reviewer</t>
   </si>
   <si>
-    <t>US-SP-013</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Fetch more pastimes if I have completed my quota to review</t>
   </si>
   <si>
-    <t>US-SP-012</t>
-  </si>
-  <si>
     <t xml:space="preserve"> View the list of pastimes allocated to me for review</t>
   </si>
   <si>
-    <t>US-SP-011</t>
-  </si>
-  <si>
     <t xml:space="preserve"> View the leader dashboard - see status of top 10 contributors</t>
   </si>
   <si>
-    <t>US-SP-010</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Release the pastime if it is difficult for me to review it</t>
   </si>
   <si>
-    <t>US-SP-009</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Setting visibility of a pastime</t>
   </si>
   <si>
-    <t>US-SP-008</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Give feedback on a pastime</t>
   </si>
   <si>
-    <t>US-SP-007</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Review a pastime to suggest title</t>
   </si>
   <si>
-    <t>US-SP-006</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Update or Modify the Keywords / Tags</t>
   </si>
   <si>
     <t>Volunteer</t>
   </si>
   <si>
-    <t>US-SP-005</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Make corrections to the pastime</t>
   </si>
   <si>
-    <t>US-SP-004</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Submit the Pastime for Review</t>
   </si>
   <si>
-    <t>US-SP-003</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Categorize the Pastime and set appropriate tags</t>
   </si>
   <si>
-    <t>US-SP-002</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Create a Pastime</t>
   </si>
   <si>
-    <t>US-SP-001</t>
-  </si>
-  <si>
     <t>MoSCoW</t>
   </si>
   <si>
@@ -201,6 +138,63 @@
   </si>
   <si>
     <t>Released On</t>
+  </si>
+  <si>
+    <t>US-SPL-001</t>
+  </si>
+  <si>
+    <t>US-SPL-002</t>
+  </si>
+  <si>
+    <t>US-SPL-003</t>
+  </si>
+  <si>
+    <t>US-SPL-004</t>
+  </si>
+  <si>
+    <t>US-SPL-005</t>
+  </si>
+  <si>
+    <t>US-SPL-006</t>
+  </si>
+  <si>
+    <t>US-SPL-007</t>
+  </si>
+  <si>
+    <t>US-SPL-008</t>
+  </si>
+  <si>
+    <t>US-SPL-009</t>
+  </si>
+  <si>
+    <t>US-SPL-010</t>
+  </si>
+  <si>
+    <t>US-SPL-011</t>
+  </si>
+  <si>
+    <t>US-SPL-012</t>
+  </si>
+  <si>
+    <t>US-SPL-013</t>
+  </si>
+  <si>
+    <t>US-SPL-014</t>
+  </si>
+  <si>
+    <t>US-SPL-015</t>
+  </si>
+  <si>
+    <t>US-SPL-016</t>
+  </si>
+  <si>
+    <t>US-SPL-017</t>
+  </si>
+  <si>
+    <t>US-SPL-018</t>
+  </si>
+  <si>
+    <t>Search the pastime with a specific word(s)</t>
   </si>
 </sst>
 </file>
@@ -327,38 +321,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -463,6 +425,38 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -477,19 +471,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table138" displayName="Table138" ref="A1:L20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:L20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table138" displayName="Table138" ref="A1:L19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L19"/>
   <sortState ref="A2:L28">
     <sortCondition ref="A3"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Story ID" dataDxfId="13"/>
-    <tableColumn id="2" name="Role" dataDxfId="12"/>
-    <tableColumn id="3" name="Story Title" dataDxfId="11"/>
-    <tableColumn id="4" name="Theme" dataDxfId="10"/>
-    <tableColumn id="5" name="Written By" dataDxfId="9"/>
-    <tableColumn id="9" name="Priority" dataDxfId="8"/>
-    <tableColumn id="13" name="Complexity" dataDxfId="7"/>
+    <tableColumn id="1" name="Story ID" dataDxfId="11"/>
+    <tableColumn id="2" name="Role" dataDxfId="10"/>
+    <tableColumn id="3" name="Story Title" dataDxfId="9"/>
+    <tableColumn id="4" name="Theme" dataDxfId="8"/>
+    <tableColumn id="5" name="Written By" dataDxfId="7"/>
+    <tableColumn id="9" name="Priority" dataDxfId="6"/>
+    <tableColumn id="13" name="Complexity" dataDxfId="5"/>
     <tableColumn id="6" name="MoSCoW" dataDxfId="4"/>
     <tableColumn id="8" name="Points" dataDxfId="3"/>
     <tableColumn id="10" name="Sprint" dataDxfId="2"/>
@@ -763,13 +757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -787,51 +781,51 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -857,13 +851,13 @@
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -889,13 +883,13 @@
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -921,13 +915,13 @@
     </row>
     <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -945,13 +939,13 @@
     </row>
     <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
@@ -960,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -977,13 +971,13 @@
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -992,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -1004,13 +998,13 @@
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
@@ -1028,13 +1022,13 @@
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>2</v>
@@ -1043,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
@@ -1060,13 +1054,13 @@
     </row>
     <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -1075,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1092,13 +1086,13 @@
     </row>
     <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -1107,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1124,13 +1118,13 @@
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -1139,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1156,13 +1150,13 @@
     </row>
     <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
@@ -1171,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1188,13 +1182,13 @@
     </row>
     <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -1203,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1220,13 +1214,13 @@
     </row>
     <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
@@ -1252,13 +1246,13 @@
     </row>
     <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
@@ -1284,13 +1278,13 @@
     </row>
     <row r="17" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -1316,13 +1310,13 @@
     </row>
     <row r="18" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
@@ -1331,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -1339,22 +1333,22 @@
     </row>
     <row r="19" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
@@ -1369,28 +1363,8 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>3</v>
-      </c>
+    <row r="21" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
@@ -1439,9 +1413,6 @@
     </row>
     <row r="37" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03 Srila Prabhupada Lila/03 Product Backlog.xlsx
+++ b/03 Srila Prabhupada Lila/03 Product Backlog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17902"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Applications\03 Srila Prabhupada Lila\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="3F30EB687763E688272DB69AE1A827C4DE90A386" xr6:coauthVersionLast="12" xr6:coauthVersionMax="12" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP LILA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,172 +27,172 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
   <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Story Title</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Written By</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>MoSCoW</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Reviewed On</t>
+  </si>
+  <si>
+    <t>Released On</t>
+  </si>
+  <si>
+    <t>US-SPL-001</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create a Pastime</t>
+  </si>
+  <si>
+    <t>Pastime</t>
+  </si>
+  <si>
+    <t>JNVD</t>
+  </si>
+  <si>
     <t>Should Do</t>
   </si>
   <si>
-    <t>JNVD</t>
-  </si>
-  <si>
-    <t>Pastime</t>
+    <t>US-SPL-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Categorize the Pastime and set appropriate tags</t>
+  </si>
+  <si>
+    <t>US-SPL-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Submit the Pastime for Review</t>
+  </si>
+  <si>
+    <t>US-SPL-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Make corrections to the pastime</t>
+  </si>
+  <si>
+    <t>US-SPL-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Update or Modify the Keywords / Tags</t>
+  </si>
+  <si>
+    <t>Must Do</t>
+  </si>
+  <si>
+    <t>US-SPL-006</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Review a pastime to suggest title</t>
+  </si>
+  <si>
+    <t>US-SPL-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Give feedback on a pastime</t>
+  </si>
+  <si>
+    <t>US-SPL-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Setting visibility of a pastime</t>
+  </si>
+  <si>
+    <t>US-SPL-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Release the pastime if it is difficult for me to review it</t>
+  </si>
+  <si>
+    <t>US-SPL-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View the leader dashboard - see status of top 10 contributors</t>
+  </si>
+  <si>
+    <t>US-SPL-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View the list of pastimes allocated to me for review</t>
+  </si>
+  <si>
+    <t>US-SPL-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fetch more pastimes if I have completed my quota to review</t>
+  </si>
+  <si>
+    <t>Could Do</t>
+  </si>
+  <si>
+    <t>US-SPL-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View the list of pastimes for which I have submitted the review</t>
+  </si>
+  <si>
+    <t>US-SPL-014</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View all the suggested titles</t>
+  </si>
+  <si>
+    <t>US-SPL-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Approve the Suggested Title</t>
+  </si>
+  <si>
+    <t>US-SPL-016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Make corrections to the title and approve</t>
+  </si>
+  <si>
+    <t>US-SPL-017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edit the Pastimes</t>
+  </si>
+  <si>
+    <t>US-SPL-018</t>
   </si>
   <si>
     <t>Visitor</t>
-  </si>
-  <si>
-    <t>Must Do</t>
-  </si>
-  <si>
-    <t>Could Do</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Edit the Pastimes</t>
-  </si>
-  <si>
-    <t>Approver</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Make corrections to the title and approve</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Approve the Suggested Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> View all the suggested titles</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> View the list of pastimes for which I have submitted the review</t>
-  </si>
-  <si>
-    <t>Reviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fetch more pastimes if I have completed my quota to review</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> View the list of pastimes allocated to me for review</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> View the leader dashboard - see status of top 10 contributors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Release the pastime if it is difficult for me to review it</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Setting visibility of a pastime</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Give feedback on a pastime</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Review a pastime to suggest title</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Update or Modify the Keywords / Tags</t>
-  </si>
-  <si>
-    <t>Volunteer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Make corrections to the pastime</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Submit the Pastime for Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Categorize the Pastime and set appropriate tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create a Pastime</t>
-  </si>
-  <si>
-    <t>MoSCoW</t>
-  </si>
-  <si>
-    <t>Complexity</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Story Title</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>Theme</t>
-  </si>
-  <si>
-    <t>Written By</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Reviewed On</t>
-  </si>
-  <si>
-    <t>Released On</t>
-  </si>
-  <si>
-    <t>US-SPL-001</t>
-  </si>
-  <si>
-    <t>US-SPL-002</t>
-  </si>
-  <si>
-    <t>US-SPL-003</t>
-  </si>
-  <si>
-    <t>US-SPL-004</t>
-  </si>
-  <si>
-    <t>US-SPL-005</t>
-  </si>
-  <si>
-    <t>US-SPL-006</t>
-  </si>
-  <si>
-    <t>US-SPL-007</t>
-  </si>
-  <si>
-    <t>US-SPL-008</t>
-  </si>
-  <si>
-    <t>US-SPL-009</t>
-  </si>
-  <si>
-    <t>US-SPL-010</t>
-  </si>
-  <si>
-    <t>US-SPL-011</t>
-  </si>
-  <si>
-    <t>US-SPL-012</t>
-  </si>
-  <si>
-    <t>US-SPL-013</t>
-  </si>
-  <si>
-    <t>US-SPL-014</t>
-  </si>
-  <si>
-    <t>US-SPL-015</t>
-  </si>
-  <si>
-    <t>US-SPL-016</t>
-  </si>
-  <si>
-    <t>US-SPL-017</t>
-  </si>
-  <si>
-    <t>US-SPL-018</t>
   </si>
   <si>
     <t>Search the pastime with a specific word(s)</t>
@@ -200,8 +201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,24 +472,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table138" displayName="Table138" ref="A1:L19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table138" displayName="Table138" ref="A1:L19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:L28">
     <sortCondition ref="A3"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Story ID" dataDxfId="11"/>
-    <tableColumn id="2" name="Role" dataDxfId="10"/>
-    <tableColumn id="3" name="Story Title" dataDxfId="9"/>
-    <tableColumn id="4" name="Theme" dataDxfId="8"/>
-    <tableColumn id="5" name="Written By" dataDxfId="7"/>
-    <tableColumn id="9" name="Priority" dataDxfId="6"/>
-    <tableColumn id="13" name="Complexity" dataDxfId="5"/>
-    <tableColumn id="6" name="MoSCoW" dataDxfId="4"/>
-    <tableColumn id="8" name="Points" dataDxfId="3"/>
-    <tableColumn id="10" name="Sprint" dataDxfId="2"/>
-    <tableColumn id="11" name="Reviewed On" dataDxfId="1"/>
-    <tableColumn id="12" name="Released On" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Story ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Role" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Story Title" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Theme" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Written By" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Priority" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Complexity" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MoSCoW" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Points" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Sprint" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Reviewed On" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Released On" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -756,17 +757,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -779,62 +780,62 @@
     <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1">
         <v>8</v>
@@ -849,24 +850,24 @@
         <v>42748</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1">
         <v>5</v>
@@ -881,24 +882,24 @@
         <v>42748</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="24.95" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -913,48 +914,48 @@
         <v>42748</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="24.95" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -969,24 +970,24 @@
         <v>42748</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="24.95" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -996,48 +997,48 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="24.95" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="24.95" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
@@ -1052,24 +1053,24 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="24.95" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1084,24 +1085,24 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="24.95" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1116,24 +1117,24 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="21" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1148,24 +1149,24 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="24.95" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1180,24 +1181,24 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="24.95" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1212,24 +1213,24 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="24.95" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1244,24 +1245,24 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="24.95" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1276,24 +1277,24 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="24.95" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
@@ -1308,47 +1309,47 @@
         <v>42762</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="24.95" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="24.95" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
@@ -1363,55 +1364,55 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="24.95" customHeight="1">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="24.95" customHeight="1">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="24.95" customHeight="1">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="24.95" customHeight="1">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="24.95" customHeight="1">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="24.95" customHeight="1">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="24.95" customHeight="1">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="24.95" customHeight="1">
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="24.95" customHeight="1">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="24.95" customHeight="1">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="24.95" customHeight="1">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="24.95" customHeight="1">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" ht="24.95" customHeight="1">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" ht="24.95" customHeight="1">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" ht="24.95" customHeight="1">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" ht="24.95" customHeight="1">
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" ht="24.95" customHeight="1">
       <c r="D37" s="3"/>
     </row>
   </sheetData>
@@ -1421,4 +1422,145 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C59E5EADCF4DCE43B0849C4BA8B8C042" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e854f84f8048972b20cfbda0141b214b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="abc59ee2edf01cfb808cadb27e045d28">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{394171A7-A6B8-49C7-B307-0374917CA497}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{887DC6A5-D192-423F-B927-9EC63195BF4A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB43A0B-1718-483C-9567-5E3E0C42C108}"/>
 </file>